--- a/Data Science/12 Business Intelligence - Utilidad y Areas de oportunidad/01_introduccion.xlsx
+++ b/Data Science/12 Business Intelligence - Utilidad y Areas de oportunidad/01_introduccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis N\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel_\OneDrive\Documentos\GitHub\2__Cursos__P\Data Science\12 Business Intelligence - Utilidad y Areas de oportunidad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D963D3F2-1B26-45B4-9258-FDAD89659F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF498DD4-D3AE-4A31-96A6-DE739CDBA593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="8" xr2:uid="{E7E535DA-8873-4876-B87F-41F201161035}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="6" xr2:uid="{E7E535DA-8873-4876-B87F-41F201161035}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="71">
   <si>
     <t>Ventas</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>Stakeholders 3</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Accionistas</t>
+  </si>
+  <si>
+    <t>Empleados</t>
   </si>
 </sst>
 </file>
@@ -253,8 +262,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -457,7 +466,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
@@ -467,10 +476,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -480,26 +489,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -508,31 +517,31 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -565,7 +574,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -577,7 +586,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -586,16 +595,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,16 +629,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,7 +649,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,20 +658,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -698,7 +707,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1550,7 +1559,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>0%</a:t>
+            <a:t>14%</a:t>
           </a:fld>
           <a:endParaRPr lang="es-MX" sz="3600" b="1">
             <a:solidFill>
@@ -1950,6 +1959,19 @@
               </a:solidFill>
             </a:rPr>
             <a:t> Intelligence es...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-MX" sz="2400" b="1" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>es un conjunto de estrategias, aplicaciones y tecnologias que no ayuda a comprender en que situacion se encuentra el negocio.</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="2400" b="1">
             <a:ln>
@@ -4744,7 +4766,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B11:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -4764,11 +4786,11 @@
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
       <c r="E11" s="56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="84">
         <f t="shared" ref="F11:F17" si="0">IF(E11,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -4859,14 +4881,14 @@
       <c r="E18" s="56"/>
       <c r="F18" s="84">
         <f>SUM(F11:F17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F19" s="85"/>
       <c r="G19" s="90">
         <f>F18/7</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -5067,7 +5089,7 @@
   <dimension ref="B6:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5100,7 +5122,7 @@
       <c r="C8" s="71"/>
       <c r="D8" s="71"/>
       <c r="E8" s="74" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
@@ -5114,7 +5136,7 @@
       <c r="C9" s="72"/>
       <c r="D9" s="71"/>
       <c r="E9" s="74" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="56" t="s">
@@ -5128,7 +5150,7 @@
       <c r="C10" s="73"/>
       <c r="D10" s="71"/>
       <c r="E10" s="74" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="56" t="s">
@@ -5258,7 +5280,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B7:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -5454,8 +5476,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="B6:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5474,11 +5496,11 @@
         <v>18</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="59" t="s">
         <v>19</v>
@@ -5801,8 +5823,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="B6:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5839,7 +5861,7 @@
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="58" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F8" s="38"/>
       <c r="G8" s="56" t="s">
@@ -5853,7 +5875,7 @@
       <c r="C9" s="50"/>
       <c r="D9" s="49"/>
       <c r="E9" s="58" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="56" t="s">
@@ -5867,7 +5889,7 @@
       <c r="C10" s="51"/>
       <c r="D10" s="49"/>
       <c r="E10" s="58" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="56" t="s">
@@ -5881,7 +5903,7 @@
       <c r="C11" s="52"/>
       <c r="D11" s="49"/>
       <c r="E11" s="58" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F11" s="41"/>
     </row>
@@ -5892,7 +5914,7 @@
       <c r="C12" s="51"/>
       <c r="D12" s="49"/>
       <c r="E12" s="58" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F12" s="41"/>
     </row>
@@ -5903,7 +5925,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="49"/>
       <c r="E13" s="58" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -5914,7 +5936,7 @@
       <c r="C14" s="51"/>
       <c r="D14" s="49"/>
       <c r="E14" s="58" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F14" s="44"/>
     </row>
@@ -5925,7 +5947,7 @@
       <c r="C15" s="54"/>
       <c r="D15" s="49"/>
       <c r="E15" s="58" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F15" s="41"/>
     </row>
@@ -5936,7 +5958,7 @@
       <c r="C16" s="54"/>
       <c r="D16" s="49"/>
       <c r="E16" s="58" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F16" s="41"/>
     </row>
@@ -5947,7 +5969,7 @@
       <c r="C17" s="52"/>
       <c r="D17" s="49"/>
       <c r="E17" s="58" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F17" s="41"/>
     </row>
@@ -6076,8 +6098,8 @@
   <sheetPr codeName="Hoja7"/>
   <dimension ref="B6:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6565,7 +6587,7 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="B13:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
